--- a/script_DNRPA/prueba.xlsx
+++ b/script_DNRPA/prueba.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +385,1892 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Provincia / Mes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ene</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Abr</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Ago</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Dic</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BUENOS AIRES</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>35.306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19.362</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.892</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>17.525</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>18.310</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16.704</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>19.624</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>18.820</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>18.495</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>17.118</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>12.187</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>9.367</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>219.710</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C.AUTONOMA DE BS.AS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15.737</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9.521</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.638</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8.369</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.189</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.687</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9.577</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>8.805</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>9.712</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>8.826</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>6.905</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>5.843</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>109.809</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CATAMARCA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.036</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>5.733</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CORDOBA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10.692</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5.474</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.103</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5.335</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.526</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.470</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6.517</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>5.795</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>5.840</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5.271</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3.818</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2.772</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>67.613</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CORRIENTES</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2.796</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.360</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.105</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.214</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.344</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.298</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1.269</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.249</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.264</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.178</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>15.477</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CHACO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2.299</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.101</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.005</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>963</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1.142</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.114</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.148</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>12.849</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CHUBUT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2.167</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.392</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.217</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.108</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.290</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.294</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1.458</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.355</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.382</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.226</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>15.633</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ENTRE RIOS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3.373</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.427</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.405</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.435</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.516</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.512</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.660</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.604</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.618</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1.420</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.050</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>18.763</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FORMOSA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.192</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>6.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>JUJUY</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.562</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>9.345</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LA PAMPA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>7.001</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LA RIOJA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>4.301</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MENDOZA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4.211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2.445</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.077</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.036</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.210</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.092</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2.361</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2.564</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2.549</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2.232</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1.541</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1.068</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>27.386</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MISIONES</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2.105</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.009</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1.131</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1.068</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.097</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>12.042</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NEUQUEN</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2.344</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1.360</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.207</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.384</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.474</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.352</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1.572</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1.375</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.445</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1.472</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1.071</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>16.903</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RIO NEGRO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1.537</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1.035</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>10.955</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SALTA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2.546</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.173</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.123</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.084</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.139</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.086</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.367</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1.236</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.258</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.207</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>14.892</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SAN JUAN</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.326</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>7.734</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SAN LUIS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.107</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>6.252</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SANTA CRUZ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1.439</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>866</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.007</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>10.647</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SANTA FE</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9.712</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4.677</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.910</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4.222</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.587</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4.429</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5.085</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>5.057</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>5.173</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>4.627</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>3.307</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2.343</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>57.129</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SGO.DEL ESTERO</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1.386</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>7.892</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TUCUMAN</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2.781</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.371</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.226</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.421</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.357</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.354</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1.511</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1.501</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.433</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1.437</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1.111</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>17.183</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>T.DEL FUEGO</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>7.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>109.513</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>58.930</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>51.878</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>53.782</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>56.821</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>53.516</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>61.667</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>58.554</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>59.697</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>54.699</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>40.068</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>30.470</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>689.595</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/script_DNRPA/prueba.xlsx
+++ b/script_DNRPA/prueba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
@@ -390,850 +390,780 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB28" sqref="A1:AB28"/>
+      <selection activeCell="A2" sqref="A1:Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Provincia / Mes</t>
+          <t>07/2014</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>BUENOS AIRES</t>
+          <t>02/2014</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>C.AUTONOMA DE BS.AS</t>
+          <t>03/2014</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CATAMARCA</t>
+          <t>07/2014</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CORDOBA</t>
+          <t>05/2014</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>CORRIENTES</t>
+          <t>06/2014</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>CHACO</t>
+          <t>07/2014</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>CHUBUT</t>
+          <t>07/2014</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>ENTRE RIOS</t>
+          <t>09/2014</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>FORMOSA</t>
+          <t>10/2014</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>JUJUY</t>
+          <t>11/2014</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>LA PAMPA</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>LA RIOJA</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>MENDOZA</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>MISIONES</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>NEUQUEN</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>RIO NEGRO</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>SALTA</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>SAN JUAN</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>SAN LUIS</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>SANTA CRUZ</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>SGO.DEL ESTERO</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>TUCUMAN</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>T.DEL FUEGO</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
+          <t>07/2014</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ene</t>
+          <t>Provincia / Mes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>35.306</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15.737</t>
+          <t>C.AUTONOMA DE BS.AS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.036</t>
+          <t>CATAMARCA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.692</t>
+          <t>CORDOBA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.796</t>
+          <t>CORRIENTES</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.299</t>
+          <t>CHACO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.167</t>
+          <t>CHUBUT</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.373</t>
+          <t>ENTRE RIOS</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.192</t>
+          <t>FORMOSA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.562</t>
+          <t>JUJUY</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>LA PAMPA</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>LA RIOJA</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4.211</t>
+          <t>MENDOZA</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.105</t>
+          <t>MISIONES</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.344</t>
+          <t>NEUQUEN</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.537</t>
+          <t>RIO NEGRO</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2.546</t>
+          <t>SALTA</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.326</t>
+          <t>SAN JUAN</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.107</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.439</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>9.712</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.386</t>
+          <t>SGO.DEL ESTERO</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2.781</t>
+          <t>TUCUMAN</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>T.DEL FUEGO</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>109.513</t>
+          <t>TOTAL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Feb</t>
+          <t>Ene</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19.362</t>
+          <t>35.306</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.521</t>
+          <t>15.737</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>1.036</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.474</t>
+          <t>10.692</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.360</t>
+          <t>2.796</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.101</t>
+          <t>2.299</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.392</t>
+          <t>2.167</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.427</t>
+          <t>3.373</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>1.192</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>902</t>
+          <t>1.562</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>1.213</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>827</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2.445</t>
+          <t>4.211</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>2.105</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.360</t>
+          <t>2.344</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>1.537</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>2.546</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>1.326</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>1.107</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>1.439</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>4.677</t>
+          <t>9.712</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>1.386</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.371</t>
+          <t>2.781</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>819</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>58.930</t>
+          <t>109.513</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16.892</t>
+          <t>19.362</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.638</t>
+          <t>9.521</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>426</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.103</t>
+          <t>5.474</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.105</t>
+          <t>1.360</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>1.101</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.217</t>
+          <t>1.392</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.405</t>
+          <t>1.427</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>622</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>902</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>605</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>375</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2.077</t>
+          <t>2.445</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>1.009</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>1.360</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>951</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.123</t>
+          <t>1.173</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>588</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>566</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>866</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>3.910</t>
+          <t>4.677</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>706</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.371</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>651</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>51.878</t>
+          <t>58.930</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Abr</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17.525</t>
+          <t>16.892</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.369</t>
+          <t>8.638</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>429</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.335</t>
+          <t>5.103</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.214</t>
+          <t>1.105</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>822</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.108</t>
+          <t>1.217</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.435</t>
+          <t>1.405</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>494</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>755</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>553</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>338</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.036</t>
+          <t>2.077</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>868</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.384</t>
+          <t>1.207</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>807</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1.084</t>
+          <t>1.123</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>647</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>458</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>712</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>4.222</t>
+          <t>3.910</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>528</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1.421</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>564</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>53.782</t>
+          <t>51.878</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Abr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18.310</t>
+          <t>17.525</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.189</t>
+          <t>8.369</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>414</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.526</t>
+          <t>5.335</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>1.214</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.005</t>
+          <t>934</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.290</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.516</t>
+          <t>1.435</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>575</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>774</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>548</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>339</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2.210</t>
+          <t>2.036</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>837</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.474</t>
+          <t>1.384</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>875</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1.139</t>
+          <t>1.084</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>617</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>515</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>850</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>4.587</t>
+          <t>4.222</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>721</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1.357</t>
+          <t>1.421</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>650</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>56.821</t>
+          <t>53.782</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>May</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16.704</t>
+          <t>18.310</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8.687</t>
+          <t>9.189</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>498</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.470</t>
+          <t>5.526</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.298</t>
+          <t>1.344</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>1.005</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.294</t>
+          <t>1.290</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.512</t>
+          <t>1.516</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1243,1004 +1173,1136 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>825</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>565</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>366</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2.092</t>
+          <t>2.210</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>900</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.352</t>
+          <t>1.474</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1.086</t>
+          <t>1.139</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>612</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>549</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>886</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>4.429</t>
+          <t>4.587</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>587</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1.354</t>
+          <t>1.357</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>589</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>53.516</t>
+          <t>56.821</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>19.624</t>
+          <t>16.704</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.577</t>
+          <t>8.687</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>451</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.517</t>
+          <t>5.470</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.269</t>
+          <t>1.298</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.142</t>
+          <t>963</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.458</t>
+          <t>1.294</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.660</t>
+          <t>1.512</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>702</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>558</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>337</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2.361</t>
+          <t>2.092</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.131</t>
+          <t>898</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.572</t>
+          <t>1.352</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.035</t>
+          <t>853</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1.367</t>
+          <t>1.086</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>579</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>455</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>798</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>5.085</t>
+          <t>4.429</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>604</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1.511</t>
+          <t>1.354</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>485</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>61.667</t>
+          <t>53.516</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ago</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18.820</t>
+          <t>19.624</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8.805</t>
+          <t>9.577</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>535</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.795</t>
+          <t>6.517</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.249</t>
+          <t>1.269</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.114</t>
+          <t>1.142</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.355</t>
+          <t>1.458</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.604</t>
+          <t>1.660</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>553</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>777</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>623</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>329</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2.564</t>
+          <t>2.361</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>1.131</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>1.572</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>1.035</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1.236</t>
+          <t>1.367</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>757</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>536</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>934</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>5.057</t>
+          <t>5.085</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>700</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1.501</t>
+          <t>1.511</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>614</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>58.554</t>
+          <t>61.667</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>Ago</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18.495</t>
+          <t>18.820</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.712</t>
+          <t>8.805</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>477</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.840</t>
+          <t>5.795</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.264</t>
+          <t>1.249</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.148</t>
+          <t>1.114</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.382</t>
+          <t>1.355</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.618</t>
+          <t>1.604</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>506</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>769</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>557</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>409</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2.549</t>
+          <t>2.564</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.097</t>
+          <t>1.068</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.445</t>
+          <t>1.375</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>975</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>1.258</t>
+          <t>1.236</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>657</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>457</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1.007</t>
+          <t>901</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>5.173</t>
+          <t>5.057</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>695</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1.433</t>
+          <t>1.501</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>608</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>59.697</t>
+          <t>58.554</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Oct</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17.118</t>
+          <t>18.495</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8.826</t>
+          <t>9.712</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>517</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.271</t>
+          <t>5.840</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.178</t>
+          <t>1.264</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>1.148</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.226</t>
+          <t>1.382</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.420</t>
+          <t>1.618</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>525</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>714</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>614</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>349</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2.232</t>
+          <t>2.549</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>1.097</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1.472</t>
+          <t>1.445</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>903</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>1.258</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>660</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>512</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>1.007</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>4.627</t>
+          <t>5.173</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>676</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1.437</t>
+          <t>1.433</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>806</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>54.699</t>
+          <t>59.697</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12.187</t>
+          <t>17.118</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.905</t>
+          <t>8.826</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>439</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.818</t>
+          <t>5.271</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>1.178</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>998</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.050</t>
+          <t>1.420</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>506</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>626</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>519</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>323</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1.541</t>
+          <t>2.232</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>965</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.071</t>
+          <t>1.472</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>868</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>1.207</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>640</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>493</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>958</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>3.307</t>
+          <t>4.627</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>597</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1.111</t>
+          <t>1.437</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>753</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>40.068</t>
+          <t>54.699</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dic</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9.367</t>
+          <t>12.187</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.843</t>
+          <t>6.905</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>287</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.772</t>
+          <t>3.818</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>816</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>795</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>919</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>1.050</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>402</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1.541</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.071</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>398</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1.068</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>847</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>532</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>781</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>351</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>712</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2.343</t>
+          <t>3.307</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>437</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>1.111</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>568</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>30.470</t>
+          <t>40.068</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Dic</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9.367</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5.843</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.772</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1.068</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>2.343</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>30.470</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>219.710</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>109.809</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>5.733</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>67.613</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>15.477</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>12.849</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>15.633</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>18.763</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>6.736</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>9.345</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>7.001</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>4.301</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>27.386</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>12.042</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>16.903</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>10.955</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>14.892</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>7.734</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>6.252</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>10.647</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>57.129</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>7.892</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>17.183</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>7.610</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>689.595</t>
         </is>

--- a/script_DNRPA/prueba.xlsx
+++ b/script_DNRPA/prueba.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,1067 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="353">
+  <si>
+    <t>07/2014</t>
+  </si>
+  <si>
+    <t>02/2014</t>
+  </si>
+  <si>
+    <t>03/2014</t>
+  </si>
+  <si>
+    <t>05/2014</t>
+  </si>
+  <si>
+    <t>06/2014</t>
+  </si>
+  <si>
+    <t>09/2014</t>
+  </si>
+  <si>
+    <t>10/2014</t>
+  </si>
+  <si>
+    <t>11/2014</t>
+  </si>
+  <si>
+    <t>Provincia / Mes</t>
+  </si>
+  <si>
+    <t>BUENOS AIRES</t>
+  </si>
+  <si>
+    <t>C.AUTONOMA DE BS.AS</t>
+  </si>
+  <si>
+    <t>CATAMARCA</t>
+  </si>
+  <si>
+    <t>CORDOBA</t>
+  </si>
+  <si>
+    <t>CORRIENTES</t>
+  </si>
+  <si>
+    <t>CHACO</t>
+  </si>
+  <si>
+    <t>CHUBUT</t>
+  </si>
+  <si>
+    <t>ENTRE RIOS</t>
+  </si>
+  <si>
+    <t>FORMOSA</t>
+  </si>
+  <si>
+    <t>JUJUY</t>
+  </si>
+  <si>
+    <t>LA PAMPA</t>
+  </si>
+  <si>
+    <t>LA RIOJA</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>MISIONES</t>
+  </si>
+  <si>
+    <t>NEUQUEN</t>
+  </si>
+  <si>
+    <t>RIO NEGRO</t>
+  </si>
+  <si>
+    <t>SALTA</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>SAN LUIS</t>
+  </si>
+  <si>
+    <t>SANTA CRUZ</t>
+  </si>
+  <si>
+    <t>SANTA FE</t>
+  </si>
+  <si>
+    <t>SGO.DEL ESTERO</t>
+  </si>
+  <si>
+    <t>TUCUMAN</t>
+  </si>
+  <si>
+    <t>T.DEL FUEGO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Ene</t>
+  </si>
+  <si>
+    <t>35.306</t>
+  </si>
+  <si>
+    <t>15.737</t>
+  </si>
+  <si>
+    <t>1.036</t>
+  </si>
+  <si>
+    <t>10.692</t>
+  </si>
+  <si>
+    <t>2.796</t>
+  </si>
+  <si>
+    <t>2.299</t>
+  </si>
+  <si>
+    <t>2.167</t>
+  </si>
+  <si>
+    <t>3.373</t>
+  </si>
+  <si>
+    <t>1.192</t>
+  </si>
+  <si>
+    <t>1.562</t>
+  </si>
+  <si>
+    <t>1.213</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>4.211</t>
+  </si>
+  <si>
+    <t>2.105</t>
+  </si>
+  <si>
+    <t>2.344</t>
+  </si>
+  <si>
+    <t>1.537</t>
+  </si>
+  <si>
+    <t>2.546</t>
+  </si>
+  <si>
+    <t>1.326</t>
+  </si>
+  <si>
+    <t>1.107</t>
+  </si>
+  <si>
+    <t>1.439</t>
+  </si>
+  <si>
+    <t>9.712</t>
+  </si>
+  <si>
+    <t>1.386</t>
+  </si>
+  <si>
+    <t>2.781</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>109.513</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>19.362</t>
+  </si>
+  <si>
+    <t>9.521</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>5.474</t>
+  </si>
+  <si>
+    <t>1.360</t>
+  </si>
+  <si>
+    <t>1.101</t>
+  </si>
+  <si>
+    <t>1.392</t>
+  </si>
+  <si>
+    <t>1.427</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>2.445</t>
+  </si>
+  <si>
+    <t>1.009</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>1.173</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>4.677</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>1.371</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>58.930</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>16.892</t>
+  </si>
+  <si>
+    <t>8.638</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>5.103</t>
+  </si>
+  <si>
+    <t>1.105</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>1.217</t>
+  </si>
+  <si>
+    <t>1.405</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>2.077</t>
+  </si>
+  <si>
+    <t>868</t>
+  </si>
+  <si>
+    <t>1.207</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>1.123</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>3.910</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>1.226</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>51.878</t>
+  </si>
+  <si>
+    <t>Abr</t>
+  </si>
+  <si>
+    <t>17.525</t>
+  </si>
+  <si>
+    <t>8.369</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>5.335</t>
+  </si>
+  <si>
+    <t>1.214</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>1.108</t>
+  </si>
+  <si>
+    <t>1.435</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>774</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>2.036</t>
+  </si>
+  <si>
+    <t>837</t>
+  </si>
+  <si>
+    <t>1.384</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>1.084</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>4.222</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>1.421</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>53.782</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>18.310</t>
+  </si>
+  <si>
+    <t>9.189</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>5.526</t>
+  </si>
+  <si>
+    <t>1.344</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>1.290</t>
+  </si>
+  <si>
+    <t>1.516</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>2.210</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>1.474</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>1.139</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>4.587</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>1.357</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>56.821</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>16.704</t>
+  </si>
+  <si>
+    <t>8.687</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>5.470</t>
+  </si>
+  <si>
+    <t>1.298</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>1.294</t>
+  </si>
+  <si>
+    <t>1.512</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>2.092</t>
+  </si>
+  <si>
+    <t>898</t>
+  </si>
+  <si>
+    <t>1.352</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>1.086</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>4.429</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>1.354</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>53.516</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>19.624</t>
+  </si>
+  <si>
+    <t>9.577</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>6.517</t>
+  </si>
+  <si>
+    <t>1.269</t>
+  </si>
+  <si>
+    <t>1.142</t>
+  </si>
+  <si>
+    <t>1.458</t>
+  </si>
+  <si>
+    <t>1.660</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>2.361</t>
+  </si>
+  <si>
+    <t>1.131</t>
+  </si>
+  <si>
+    <t>1.572</t>
+  </si>
+  <si>
+    <t>1.035</t>
+  </si>
+  <si>
+    <t>1.367</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>5.085</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>1.511</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>61.667</t>
+  </si>
+  <si>
+    <t>Ago</t>
+  </si>
+  <si>
+    <t>18.820</t>
+  </si>
+  <si>
+    <t>8.805</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>5.795</t>
+  </si>
+  <si>
+    <t>1.249</t>
+  </si>
+  <si>
+    <t>1.114</t>
+  </si>
+  <si>
+    <t>1.355</t>
+  </si>
+  <si>
+    <t>1.604</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>2.564</t>
+  </si>
+  <si>
+    <t>1.068</t>
+  </si>
+  <si>
+    <t>1.375</t>
+  </si>
+  <si>
+    <t>975</t>
+  </si>
+  <si>
+    <t>1.236</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>5.057</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>1.501</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>58.554</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>18.495</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>5.840</t>
+  </si>
+  <si>
+    <t>1.264</t>
+  </si>
+  <si>
+    <t>1.148</t>
+  </si>
+  <si>
+    <t>1.382</t>
+  </si>
+  <si>
+    <t>1.618</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>2.549</t>
+  </si>
+  <si>
+    <t>1.097</t>
+  </si>
+  <si>
+    <t>1.445</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>1.258</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>1.007</t>
+  </si>
+  <si>
+    <t>5.173</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>1.433</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>59.697</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>17.118</t>
+  </si>
+  <si>
+    <t>8.826</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>5.271</t>
+  </si>
+  <si>
+    <t>1.178</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>1.420</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>2.232</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>1.472</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>4.627</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>1.437</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>54.699</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>12.187</t>
+  </si>
+  <si>
+    <t>6.905</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>3.818</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>1.050</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>1.541</t>
+  </si>
+  <si>
+    <t>1.071</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>3.307</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>1.111</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>40.068</t>
+  </si>
+  <si>
+    <t>Dic</t>
+  </si>
+  <si>
+    <t>9.367</t>
+  </si>
+  <si>
+    <t>5.843</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>2.772</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>847</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>2.343</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>30.470</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>219.710</t>
+  </si>
+  <si>
+    <t>109.809</t>
+  </si>
+  <si>
+    <t>5.733</t>
+  </si>
+  <si>
+    <t>67.613</t>
+  </si>
+  <si>
+    <t>15.477</t>
+  </si>
+  <si>
+    <t>12.849</t>
+  </si>
+  <si>
+    <t>15.633</t>
+  </si>
+  <si>
+    <t>18.763</t>
+  </si>
+  <si>
+    <t>6.736</t>
+  </si>
+  <si>
+    <t>9.345</t>
+  </si>
+  <si>
+    <t>7.001</t>
+  </si>
+  <si>
+    <t>4.301</t>
+  </si>
+  <si>
+    <t>27.386</t>
+  </si>
+  <si>
+    <t>12.042</t>
+  </si>
+  <si>
+    <t>16.903</t>
+  </si>
+  <si>
+    <t>10.955</t>
+  </si>
+  <si>
+    <t>14.892</t>
+  </si>
+  <si>
+    <t>7.734</t>
+  </si>
+  <si>
+    <t>6.252</t>
+  </si>
+  <si>
+    <t>10.647</t>
+  </si>
+  <si>
+    <t>57.129</t>
+  </si>
+  <si>
+    <t>7.892</t>
+  </si>
+  <si>
+    <t>17.183</t>
+  </si>
+  <si>
+    <t>7.610</t>
+  </si>
+  <si>
+    <t>689.595</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,16 +1396,1174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A17"/>
+  <dimension ref="A17:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A17:L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" t="s">
+        <v>52</v>
+      </c>
+      <c r="T20" t="s">
+        <v>53</v>
+      </c>
+      <c r="U20" t="s">
+        <v>54</v>
+      </c>
+      <c r="V20" t="s">
+        <v>55</v>
+      </c>
+      <c r="W20" t="s">
+        <v>56</v>
+      </c>
+      <c r="X20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" t="s">
+        <v>77</v>
+      </c>
+      <c r="T21" t="s">
+        <v>78</v>
+      </c>
+      <c r="U21" t="s">
+        <v>79</v>
+      </c>
+      <c r="V21" t="s">
+        <v>80</v>
+      </c>
+      <c r="W21" t="s">
+        <v>81</v>
+      </c>
+      <c r="X21" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>101</v>
+      </c>
+      <c r="R22" t="s">
+        <v>102</v>
+      </c>
+      <c r="S22" t="s">
+        <v>103</v>
+      </c>
+      <c r="T22" t="s">
+        <v>104</v>
+      </c>
+      <c r="U22" t="s">
+        <v>105</v>
+      </c>
+      <c r="V22" t="s">
+        <v>106</v>
+      </c>
+      <c r="W22" t="s">
+        <v>107</v>
+      </c>
+      <c r="X22" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" t="s">
+        <v>123</v>
+      </c>
+      <c r="N23" t="s">
+        <v>124</v>
+      </c>
+      <c r="O23" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>127</v>
+      </c>
+      <c r="R23" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" t="s">
+        <v>129</v>
+      </c>
+      <c r="T23" t="s">
+        <v>130</v>
+      </c>
+      <c r="U23" t="s">
+        <v>131</v>
+      </c>
+      <c r="V23" t="s">
+        <v>132</v>
+      </c>
+      <c r="W23" t="s">
+        <v>133</v>
+      </c>
+      <c r="X23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" t="s">
+        <v>149</v>
+      </c>
+      <c r="N24" t="s">
+        <v>150</v>
+      </c>
+      <c r="O24" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>153</v>
+      </c>
+      <c r="R24" t="s">
+        <v>154</v>
+      </c>
+      <c r="S24" t="s">
+        <v>155</v>
+      </c>
+      <c r="T24" t="s">
+        <v>156</v>
+      </c>
+      <c r="U24" t="s">
+        <v>157</v>
+      </c>
+      <c r="V24" t="s">
+        <v>158</v>
+      </c>
+      <c r="W24" t="s">
+        <v>159</v>
+      </c>
+      <c r="X24" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" t="s">
+        <v>171</v>
+      </c>
+      <c r="J25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" t="s">
+        <v>173</v>
+      </c>
+      <c r="M25" t="s">
+        <v>174</v>
+      </c>
+      <c r="N25" t="s">
+        <v>175</v>
+      </c>
+      <c r="O25" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>178</v>
+      </c>
+      <c r="R25" t="s">
+        <v>179</v>
+      </c>
+      <c r="S25" t="s">
+        <v>180</v>
+      </c>
+      <c r="T25" t="s">
+        <v>181</v>
+      </c>
+      <c r="U25" t="s">
+        <v>182</v>
+      </c>
+      <c r="V25" t="s">
+        <v>183</v>
+      </c>
+      <c r="W25" t="s">
+        <v>184</v>
+      </c>
+      <c r="X25" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" t="s">
+        <v>195</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" t="s">
+        <v>199</v>
+      </c>
+      <c r="N26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>201</v>
+      </c>
+      <c r="P26" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>203</v>
+      </c>
+      <c r="R26" t="s">
+        <v>204</v>
+      </c>
+      <c r="S26" t="s">
+        <v>205</v>
+      </c>
+      <c r="T26" t="s">
+        <v>206</v>
+      </c>
+      <c r="U26" t="s">
+        <v>117</v>
+      </c>
+      <c r="V26" t="s">
+        <v>207</v>
+      </c>
+      <c r="W26" t="s">
+        <v>208</v>
+      </c>
+      <c r="X26" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I27" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" t="s">
+        <v>224</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" t="s">
+        <v>226</v>
+      </c>
+      <c r="P27" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>228</v>
+      </c>
+      <c r="R27" t="s">
+        <v>229</v>
+      </c>
+      <c r="S27" t="s">
+        <v>230</v>
+      </c>
+      <c r="T27" t="s">
+        <v>231</v>
+      </c>
+      <c r="U27" t="s">
+        <v>232</v>
+      </c>
+      <c r="V27" t="s">
+        <v>233</v>
+      </c>
+      <c r="W27" t="s">
+        <v>234</v>
+      </c>
+      <c r="X27" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" t="s">
+        <v>244</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" t="s">
+        <v>248</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>250</v>
+      </c>
+      <c r="P28" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>252</v>
+      </c>
+      <c r="R28" t="s">
+        <v>253</v>
+      </c>
+      <c r="S28" t="s">
+        <v>254</v>
+      </c>
+      <c r="T28" t="s">
+        <v>255</v>
+      </c>
+      <c r="U28" t="s">
+        <v>256</v>
+      </c>
+      <c r="V28" t="s">
+        <v>257</v>
+      </c>
+      <c r="W28" t="s">
+        <v>258</v>
+      </c>
+      <c r="X28" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>268</v>
+      </c>
+      <c r="H29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" t="s">
+        <v>272</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>274</v>
+      </c>
+      <c r="P29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>99</v>
+      </c>
+      <c r="R29" t="s">
+        <v>100</v>
+      </c>
+      <c r="S29" t="s">
+        <v>276</v>
+      </c>
+      <c r="T29" t="s">
+        <v>277</v>
+      </c>
+      <c r="U29" t="s">
+        <v>278</v>
+      </c>
+      <c r="V29" t="s">
+        <v>279</v>
+      </c>
+      <c r="W29" t="s">
+        <v>280</v>
+      </c>
+      <c r="X29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" t="s">
+        <v>287</v>
+      </c>
+      <c r="E30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" t="s">
+        <v>290</v>
+      </c>
+      <c r="H30" t="s">
+        <v>291</v>
+      </c>
+      <c r="I30" t="s">
+        <v>292</v>
+      </c>
+      <c r="J30" t="s">
+        <v>293</v>
+      </c>
+      <c r="K30" t="s">
+        <v>294</v>
+      </c>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+      <c r="M30" t="s">
+        <v>295</v>
+      </c>
+      <c r="N30" t="s">
+        <v>296</v>
+      </c>
+      <c r="O30" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>298</v>
+      </c>
+      <c r="R30" t="s">
+        <v>299</v>
+      </c>
+      <c r="S30" t="s">
+        <v>300</v>
+      </c>
+      <c r="T30" t="s">
+        <v>301</v>
+      </c>
+      <c r="U30" t="s">
+        <v>105</v>
+      </c>
+      <c r="V30" t="s">
+        <v>302</v>
+      </c>
+      <c r="W30" t="s">
+        <v>303</v>
+      </c>
+      <c r="X30" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>307</v>
+      </c>
+      <c r="B31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E31" t="s">
+        <v>311</v>
+      </c>
+      <c r="F31" t="s">
+        <v>312</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" t="s">
+        <v>313</v>
+      </c>
+      <c r="J31" t="s">
+        <v>314</v>
+      </c>
+      <c r="K31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s">
+        <v>315</v>
+      </c>
+      <c r="M31" t="s">
+        <v>316</v>
+      </c>
+      <c r="N31" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" t="s">
+        <v>317</v>
+      </c>
+      <c r="P31" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>319</v>
+      </c>
+      <c r="R31" t="s">
+        <v>320</v>
+      </c>
+      <c r="S31" t="s">
+        <v>321</v>
+      </c>
+      <c r="T31" t="s">
+        <v>321</v>
+      </c>
+      <c r="U31" t="s">
+        <v>312</v>
+      </c>
+      <c r="V31" t="s">
+        <v>322</v>
+      </c>
+      <c r="W31" t="s">
+        <v>323</v>
+      </c>
+      <c r="X31" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E32" t="s">
+        <v>331</v>
+      </c>
+      <c r="F32" t="s">
+        <v>332</v>
+      </c>
+      <c r="G32" t="s">
+        <v>333</v>
+      </c>
+      <c r="H32" t="s">
+        <v>334</v>
+      </c>
+      <c r="I32" t="s">
+        <v>335</v>
+      </c>
+      <c r="J32" t="s">
+        <v>336</v>
+      </c>
+      <c r="K32" t="s">
+        <v>337</v>
+      </c>
+      <c r="L32" t="s">
+        <v>338</v>
+      </c>
+      <c r="M32" t="s">
+        <v>339</v>
+      </c>
+      <c r="N32" t="s">
+        <v>340</v>
+      </c>
+      <c r="O32" t="s">
+        <v>341</v>
+      </c>
+      <c r="P32" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>343</v>
+      </c>
+      <c r="R32" t="s">
+        <v>344</v>
+      </c>
+      <c r="S32" t="s">
+        <v>345</v>
+      </c>
+      <c r="T32" t="s">
+        <v>346</v>
+      </c>
+      <c r="U32" t="s">
+        <v>347</v>
+      </c>
+      <c r="V32" t="s">
+        <v>348</v>
+      </c>
+      <c r="W32" t="s">
+        <v>349</v>
+      </c>
+      <c r="X32" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>352</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script_DNRPA/prueba.xlsx
+++ b/script_DNRPA/prueba.xlsx
@@ -390,14 +390,1213 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Provincia / Mes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>BUENOS AIRES</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>C.AUTONOMA DE BS.AS</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CATAMARCA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>CORDOBA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>CORRIENTES</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CHACO</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>CHUBUT</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ENTRE RIOS</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>FORMOSA</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>JUJUY</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LA PAMPA</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LA RIOJA</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>MENDOZA</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>MISIONES</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>NEUQUEN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>RIO NEGRO</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>SALTA</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>SAN JUAN</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>SAN LUIS</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>SANTA CRUZ</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>SANTA FE</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>SGO.DEL ESTERO</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>TUCUMAN</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>T.DEL FUEGO</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ene</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>35306</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15737</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10692</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2796</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2299</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2167</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3373</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1192</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1562</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1213</v>
+      </c>
+      <c r="M2" t="n">
+        <v>827</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4211</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2105</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2344</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1537</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2546</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1326</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1107</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1439</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9712</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1386</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2781</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>819</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>109513</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19362</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9521</v>
+      </c>
+      <c r="D3" t="n">
+        <v>426</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5474</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1360</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1392</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1427</v>
+      </c>
+      <c r="J3" t="n">
+        <v>622</v>
+      </c>
+      <c r="K3" t="n">
+        <v>902</v>
+      </c>
+      <c r="L3" t="n">
+        <v>605</v>
+      </c>
+      <c r="M3" t="n">
+        <v>375</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2445</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1009</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1360</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>951</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1173</v>
+      </c>
+      <c r="S3" t="n">
+        <v>588</v>
+      </c>
+      <c r="T3" t="n">
+        <v>566</v>
+      </c>
+      <c r="U3" t="n">
+        <v>866</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4677</v>
+      </c>
+      <c r="W3" t="n">
+        <v>706</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1371</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>651</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>58930</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16892</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8638</v>
+      </c>
+      <c r="D4" t="n">
+        <v>429</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5103</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1105</v>
+      </c>
+      <c r="G4" t="n">
+        <v>822</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1217</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1405</v>
+      </c>
+      <c r="J4" t="n">
+        <v>494</v>
+      </c>
+      <c r="K4" t="n">
+        <v>755</v>
+      </c>
+      <c r="L4" t="n">
+        <v>553</v>
+      </c>
+      <c r="M4" t="n">
+        <v>338</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2077</v>
+      </c>
+      <c r="O4" t="n">
+        <v>868</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1207</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>807</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1123</v>
+      </c>
+      <c r="S4" t="n">
+        <v>647</v>
+      </c>
+      <c r="T4" t="n">
+        <v>458</v>
+      </c>
+      <c r="U4" t="n">
+        <v>712</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W4" t="n">
+        <v>528</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1226</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>564</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>51878</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Abr</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>17525</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8369</v>
+      </c>
+      <c r="D5" t="n">
+        <v>414</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5335</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1214</v>
+      </c>
+      <c r="G5" t="n">
+        <v>934</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1108</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1435</v>
+      </c>
+      <c r="J5" t="n">
+        <v>575</v>
+      </c>
+      <c r="K5" t="n">
+        <v>774</v>
+      </c>
+      <c r="L5" t="n">
+        <v>548</v>
+      </c>
+      <c r="M5" t="n">
+        <v>339</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2036</v>
+      </c>
+      <c r="O5" t="n">
+        <v>837</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1384</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>875</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1084</v>
+      </c>
+      <c r="S5" t="n">
+        <v>617</v>
+      </c>
+      <c r="T5" t="n">
+        <v>515</v>
+      </c>
+      <c r="U5" t="n">
+        <v>850</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4222</v>
+      </c>
+      <c r="W5" t="n">
+        <v>721</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1421</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>650</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>53782</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18310</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9189</v>
+      </c>
+      <c r="D6" t="n">
+        <v>498</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5526</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1005</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1290</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1516</v>
+      </c>
+      <c r="J6" t="n">
+        <v>555</v>
+      </c>
+      <c r="K6" t="n">
+        <v>825</v>
+      </c>
+      <c r="L6" t="n">
+        <v>565</v>
+      </c>
+      <c r="M6" t="n">
+        <v>366</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2210</v>
+      </c>
+      <c r="O6" t="n">
+        <v>900</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1474</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>942</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1139</v>
+      </c>
+      <c r="S6" t="n">
+        <v>612</v>
+      </c>
+      <c r="T6" t="n">
+        <v>549</v>
+      </c>
+      <c r="U6" t="n">
+        <v>886</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4587</v>
+      </c>
+      <c r="W6" t="n">
+        <v>587</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1357</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>589</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>56821</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16704</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8687</v>
+      </c>
+      <c r="D7" t="n">
+        <v>451</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5470</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1298</v>
+      </c>
+      <c r="G7" t="n">
+        <v>963</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1294</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1512</v>
+      </c>
+      <c r="J7" t="n">
+        <v>555</v>
+      </c>
+      <c r="K7" t="n">
+        <v>702</v>
+      </c>
+      <c r="L7" t="n">
+        <v>558</v>
+      </c>
+      <c r="M7" t="n">
+        <v>337</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2092</v>
+      </c>
+      <c r="O7" t="n">
+        <v>898</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1352</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>853</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1086</v>
+      </c>
+      <c r="S7" t="n">
+        <v>579</v>
+      </c>
+      <c r="T7" t="n">
+        <v>455</v>
+      </c>
+      <c r="U7" t="n">
+        <v>798</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4429</v>
+      </c>
+      <c r="W7" t="n">
+        <v>604</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1354</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>485</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>53516</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>19624</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9577</v>
+      </c>
+      <c r="D8" t="n">
+        <v>535</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6517</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1269</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1142</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1458</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1660</v>
+      </c>
+      <c r="J8" t="n">
+        <v>553</v>
+      </c>
+      <c r="K8" t="n">
+        <v>777</v>
+      </c>
+      <c r="L8" t="n">
+        <v>623</v>
+      </c>
+      <c r="M8" t="n">
+        <v>329</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2361</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1131</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1572</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1035</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1367</v>
+      </c>
+      <c r="S8" t="n">
+        <v>757</v>
+      </c>
+      <c r="T8" t="n">
+        <v>536</v>
+      </c>
+      <c r="U8" t="n">
+        <v>934</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5085</v>
+      </c>
+      <c r="W8" t="n">
+        <v>700</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1511</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>614</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>61667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ago</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18820</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8805</v>
+      </c>
+      <c r="D9" t="n">
+        <v>477</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5795</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1114</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1355</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1604</v>
+      </c>
+      <c r="J9" t="n">
+        <v>506</v>
+      </c>
+      <c r="K9" t="n">
+        <v>769</v>
+      </c>
+      <c r="L9" t="n">
+        <v>557</v>
+      </c>
+      <c r="M9" t="n">
+        <v>409</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2564</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1068</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1375</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>975</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1236</v>
+      </c>
+      <c r="S9" t="n">
+        <v>657</v>
+      </c>
+      <c r="T9" t="n">
+        <v>457</v>
+      </c>
+      <c r="U9" t="n">
+        <v>901</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5057</v>
+      </c>
+      <c r="W9" t="n">
+        <v>695</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1501</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>608</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>58554</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18495</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9712</v>
+      </c>
+      <c r="D10" t="n">
+        <v>517</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5840</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1264</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1148</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1382</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1618</v>
+      </c>
+      <c r="J10" t="n">
+        <v>525</v>
+      </c>
+      <c r="K10" t="n">
+        <v>714</v>
+      </c>
+      <c r="L10" t="n">
+        <v>614</v>
+      </c>
+      <c r="M10" t="n">
+        <v>349</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2549</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1097</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1445</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>903</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1258</v>
+      </c>
+      <c r="S10" t="n">
+        <v>660</v>
+      </c>
+      <c r="T10" t="n">
+        <v>512</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1007</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5173</v>
+      </c>
+      <c r="W10" t="n">
+        <v>676</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1433</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>806</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>59697</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>17118</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8826</v>
+      </c>
+      <c r="D11" t="n">
+        <v>439</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5271</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1178</v>
+      </c>
+      <c r="G11" t="n">
+        <v>998</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1226</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1420</v>
+      </c>
+      <c r="J11" t="n">
+        <v>506</v>
+      </c>
+      <c r="K11" t="n">
+        <v>626</v>
+      </c>
+      <c r="L11" t="n">
+        <v>519</v>
+      </c>
+      <c r="M11" t="n">
+        <v>323</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2232</v>
+      </c>
+      <c r="O11" t="n">
+        <v>965</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1472</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>868</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1207</v>
+      </c>
+      <c r="S11" t="n">
+        <v>640</v>
+      </c>
+      <c r="T11" t="n">
+        <v>493</v>
+      </c>
+      <c r="U11" t="n">
+        <v>958</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4627</v>
+      </c>
+      <c r="W11" t="n">
+        <v>597</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1437</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>753</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>54699</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12187</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6905</v>
+      </c>
+      <c r="D12" t="n">
+        <v>287</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3818</v>
+      </c>
+      <c r="F12" t="n">
+        <v>816</v>
+      </c>
+      <c r="G12" t="n">
+        <v>795</v>
+      </c>
+      <c r="H12" t="n">
+        <v>919</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="J12" t="n">
+        <v>402</v>
+      </c>
+      <c r="K12" t="n">
+        <v>541</v>
+      </c>
+      <c r="L12" t="n">
+        <v>375</v>
+      </c>
+      <c r="M12" t="n">
+        <v>187</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1541</v>
+      </c>
+      <c r="O12" t="n">
+        <v>721</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1071</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>677</v>
+      </c>
+      <c r="R12" t="n">
+        <v>892</v>
+      </c>
+      <c r="S12" t="n">
+        <v>398</v>
+      </c>
+      <c r="T12" t="n">
+        <v>351</v>
+      </c>
+      <c r="U12" t="n">
+        <v>712</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3307</v>
+      </c>
+      <c r="W12" t="n">
+        <v>437</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1111</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>568</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>40068</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dic</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9367</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5843</v>
+      </c>
+      <c r="D13" t="n">
+        <v>224</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2772</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>528</v>
+      </c>
+      <c r="H13" t="n">
+        <v>825</v>
+      </c>
+      <c r="I13" t="n">
+        <v>743</v>
+      </c>
+      <c r="J13" t="n">
+        <v>251</v>
+      </c>
+      <c r="K13" t="n">
+        <v>398</v>
+      </c>
+      <c r="L13" t="n">
+        <v>271</v>
+      </c>
+      <c r="M13" t="n">
+        <v>122</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1068</v>
+      </c>
+      <c r="O13" t="n">
+        <v>443</v>
+      </c>
+      <c r="P13" t="n">
+        <v>847</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>532</v>
+      </c>
+      <c r="R13" t="n">
+        <v>781</v>
+      </c>
+      <c r="S13" t="n">
+        <v>253</v>
+      </c>
+      <c r="T13" t="n">
+        <v>253</v>
+      </c>
+      <c r="U13" t="n">
+        <v>584</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2343</v>
+      </c>
+      <c r="W13" t="n">
+        <v>255</v>
+      </c>
+      <c r="X13" t="n">
+        <v>680</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>503</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>30470</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>219710</v>
+      </c>
+      <c r="C14" t="n">
+        <v>109809</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5733</v>
+      </c>
+      <c r="E14" t="n">
+        <v>67613</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15477</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12849</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15633</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18763</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6736</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9345</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7001</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4301</v>
+      </c>
+      <c r="N14" t="n">
+        <v>27386</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12042</v>
+      </c>
+      <c r="P14" t="n">
+        <v>16903</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>10955</v>
+      </c>
+      <c r="R14" t="n">
+        <v>14892</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7734</v>
+      </c>
+      <c r="T14" t="n">
+        <v>6252</v>
+      </c>
+      <c r="U14" t="n">
+        <v>10647</v>
+      </c>
+      <c r="V14" t="n">
+        <v>57129</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7892</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17183</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7610</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>689595</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/script_DNRPA/prueba.xlsx
+++ b/script_DNRPA/prueba.xlsx
@@ -16,12 +16,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -45,8 +53,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,13 +399,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="1" min="1" max="16384"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1514,89 +1526,8 @@
         <v>30470</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>219710</v>
-      </c>
-      <c r="C14" t="n">
-        <v>109809</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5733</v>
-      </c>
-      <c r="E14" t="n">
-        <v>67613</v>
-      </c>
-      <c r="F14" t="n">
-        <v>15477</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12849</v>
-      </c>
-      <c r="H14" t="n">
-        <v>15633</v>
-      </c>
-      <c r="I14" t="n">
-        <v>18763</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6736</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9345</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7001</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4301</v>
-      </c>
-      <c r="N14" t="n">
-        <v>27386</v>
-      </c>
-      <c r="O14" t="n">
-        <v>12042</v>
-      </c>
-      <c r="P14" t="n">
-        <v>16903</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>10955</v>
-      </c>
-      <c r="R14" t="n">
-        <v>14892</v>
-      </c>
-      <c r="S14" t="n">
-        <v>7734</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6252</v>
-      </c>
-      <c r="U14" t="n">
-        <v>10647</v>
-      </c>
-      <c r="V14" t="n">
-        <v>57129</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7892</v>
-      </c>
-      <c r="X14" t="n">
-        <v>17183</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>7610</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>689595</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/script_DNRPA/prueba.xlsx
+++ b/script_DNRPA/prueba.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/script_DNRPA/prueba.xlsx
+++ b/script_DNRPA/prueba.xlsx
@@ -545,7 +545,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ene</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -627,7 +627,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Feb</t>
+          <t>2014-02-01</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -709,7 +709,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>2014-03-01</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -791,7 +791,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Abr</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -873,7 +873,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>2014-05-01</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -955,7 +955,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1037,7 +1037,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1119,7 +1119,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ago</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1201,7 +1201,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1283,7 +1283,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Oct</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1365,7 +1365,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1447,7 +1447,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dic</t>
+          <t>2014-12-01</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/script_DNRPA/prueba.xlsx
+++ b/script_DNRPA/prueba.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -53,9 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
@@ -1526,6 +1529,1098 @@
         <v>30470</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Provincia / Mes</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BUENOS AIRES</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C.AUTONOMA DE BS.AS</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CATAMARCA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CORDOBA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CORRIENTES</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CHACO</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CHUBUT</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ENTRE RIOS</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>FORMOSA</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>JUJUY</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>LA PAMPA</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>LA RIOJA</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>MENDOZA</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>MISIONES</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NEUQUEN</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>RIO NEGRO</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>SALTA</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>SAN JUAN</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>SAN LUIS</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>SANTA CRUZ</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>SANTA FE</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>SGO.DEL ESTERO</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>TUCUMAN</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>T.DEL FUEGO</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>41640</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35306</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15737</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10692</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2796</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2299</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2167</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3373</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1192</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1562</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1213</v>
+      </c>
+      <c r="M15" t="n">
+        <v>827</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4211</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2105</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2344</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1537</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2546</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1326</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1107</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1439</v>
+      </c>
+      <c r="V15" t="n">
+        <v>9712</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1386</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2781</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>819</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>109513</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19362</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9521</v>
+      </c>
+      <c r="D16" t="n">
+        <v>426</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5474</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1360</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1101</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1392</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1427</v>
+      </c>
+      <c r="J16" t="n">
+        <v>622</v>
+      </c>
+      <c r="K16" t="n">
+        <v>902</v>
+      </c>
+      <c r="L16" t="n">
+        <v>605</v>
+      </c>
+      <c r="M16" t="n">
+        <v>375</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2445</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1009</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1360</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>951</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1173</v>
+      </c>
+      <c r="S16" t="n">
+        <v>588</v>
+      </c>
+      <c r="T16" t="n">
+        <v>566</v>
+      </c>
+      <c r="U16" t="n">
+        <v>866</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4677</v>
+      </c>
+      <c r="W16" t="n">
+        <v>706</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1371</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>651</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>58930</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>41699</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16892</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8638</v>
+      </c>
+      <c r="D17" t="n">
+        <v>429</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5103</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1105</v>
+      </c>
+      <c r="G17" t="n">
+        <v>822</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1217</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1405</v>
+      </c>
+      <c r="J17" t="n">
+        <v>494</v>
+      </c>
+      <c r="K17" t="n">
+        <v>755</v>
+      </c>
+      <c r="L17" t="n">
+        <v>553</v>
+      </c>
+      <c r="M17" t="n">
+        <v>338</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2077</v>
+      </c>
+      <c r="O17" t="n">
+        <v>868</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1207</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>807</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1123</v>
+      </c>
+      <c r="S17" t="n">
+        <v>647</v>
+      </c>
+      <c r="T17" t="n">
+        <v>458</v>
+      </c>
+      <c r="U17" t="n">
+        <v>712</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W17" t="n">
+        <v>528</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1226</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>564</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>51878</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17525</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8369</v>
+      </c>
+      <c r="D18" t="n">
+        <v>414</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5335</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1214</v>
+      </c>
+      <c r="G18" t="n">
+        <v>934</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1108</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1435</v>
+      </c>
+      <c r="J18" t="n">
+        <v>575</v>
+      </c>
+      <c r="K18" t="n">
+        <v>774</v>
+      </c>
+      <c r="L18" t="n">
+        <v>548</v>
+      </c>
+      <c r="M18" t="n">
+        <v>339</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2036</v>
+      </c>
+      <c r="O18" t="n">
+        <v>837</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1384</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>875</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1084</v>
+      </c>
+      <c r="S18" t="n">
+        <v>617</v>
+      </c>
+      <c r="T18" t="n">
+        <v>515</v>
+      </c>
+      <c r="U18" t="n">
+        <v>850</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4222</v>
+      </c>
+      <c r="W18" t="n">
+        <v>721</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1421</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>650</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>53782</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>41760</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18310</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9189</v>
+      </c>
+      <c r="D19" t="n">
+        <v>498</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5526</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1005</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1290</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1516</v>
+      </c>
+      <c r="J19" t="n">
+        <v>555</v>
+      </c>
+      <c r="K19" t="n">
+        <v>825</v>
+      </c>
+      <c r="L19" t="n">
+        <v>565</v>
+      </c>
+      <c r="M19" t="n">
+        <v>366</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2210</v>
+      </c>
+      <c r="O19" t="n">
+        <v>900</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1474</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>942</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1139</v>
+      </c>
+      <c r="S19" t="n">
+        <v>612</v>
+      </c>
+      <c r="T19" t="n">
+        <v>549</v>
+      </c>
+      <c r="U19" t="n">
+        <v>886</v>
+      </c>
+      <c r="V19" t="n">
+        <v>4587</v>
+      </c>
+      <c r="W19" t="n">
+        <v>587</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1357</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>589</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>56821</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="B20" t="n">
+        <v>16704</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8687</v>
+      </c>
+      <c r="D20" t="n">
+        <v>451</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5470</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1298</v>
+      </c>
+      <c r="G20" t="n">
+        <v>963</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1294</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1512</v>
+      </c>
+      <c r="J20" t="n">
+        <v>555</v>
+      </c>
+      <c r="K20" t="n">
+        <v>702</v>
+      </c>
+      <c r="L20" t="n">
+        <v>558</v>
+      </c>
+      <c r="M20" t="n">
+        <v>337</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2092</v>
+      </c>
+      <c r="O20" t="n">
+        <v>898</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1352</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>853</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1086</v>
+      </c>
+      <c r="S20" t="n">
+        <v>579</v>
+      </c>
+      <c r="T20" t="n">
+        <v>455</v>
+      </c>
+      <c r="U20" t="n">
+        <v>798</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4429</v>
+      </c>
+      <c r="W20" t="n">
+        <v>604</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1354</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>485</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>53516</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19624</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9577</v>
+      </c>
+      <c r="D21" t="n">
+        <v>535</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6517</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1269</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1142</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1458</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1660</v>
+      </c>
+      <c r="J21" t="n">
+        <v>553</v>
+      </c>
+      <c r="K21" t="n">
+        <v>777</v>
+      </c>
+      <c r="L21" t="n">
+        <v>623</v>
+      </c>
+      <c r="M21" t="n">
+        <v>329</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2361</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1131</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1572</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1035</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1367</v>
+      </c>
+      <c r="S21" t="n">
+        <v>757</v>
+      </c>
+      <c r="T21" t="n">
+        <v>536</v>
+      </c>
+      <c r="U21" t="n">
+        <v>934</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5085</v>
+      </c>
+      <c r="W21" t="n">
+        <v>700</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1511</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>614</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>61667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="B22" t="n">
+        <v>18820</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8805</v>
+      </c>
+      <c r="D22" t="n">
+        <v>477</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5795</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1114</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1355</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1604</v>
+      </c>
+      <c r="J22" t="n">
+        <v>506</v>
+      </c>
+      <c r="K22" t="n">
+        <v>769</v>
+      </c>
+      <c r="L22" t="n">
+        <v>557</v>
+      </c>
+      <c r="M22" t="n">
+        <v>409</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2564</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1068</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1375</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>975</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1236</v>
+      </c>
+      <c r="S22" t="n">
+        <v>657</v>
+      </c>
+      <c r="T22" t="n">
+        <v>457</v>
+      </c>
+      <c r="U22" t="n">
+        <v>901</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5057</v>
+      </c>
+      <c r="W22" t="n">
+        <v>695</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1501</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>608</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>58554</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>41883</v>
+      </c>
+      <c r="B23" t="n">
+        <v>18495</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9712</v>
+      </c>
+      <c r="D23" t="n">
+        <v>517</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5840</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1264</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1148</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1382</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1618</v>
+      </c>
+      <c r="J23" t="n">
+        <v>525</v>
+      </c>
+      <c r="K23" t="n">
+        <v>714</v>
+      </c>
+      <c r="L23" t="n">
+        <v>614</v>
+      </c>
+      <c r="M23" t="n">
+        <v>349</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2549</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1097</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1445</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>903</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1258</v>
+      </c>
+      <c r="S23" t="n">
+        <v>660</v>
+      </c>
+      <c r="T23" t="n">
+        <v>512</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1007</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5173</v>
+      </c>
+      <c r="W23" t="n">
+        <v>676</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1433</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>806</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>59697</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="B24" t="n">
+        <v>17118</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8826</v>
+      </c>
+      <c r="D24" t="n">
+        <v>439</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5271</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1178</v>
+      </c>
+      <c r="G24" t="n">
+        <v>998</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1226</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1420</v>
+      </c>
+      <c r="J24" t="n">
+        <v>506</v>
+      </c>
+      <c r="K24" t="n">
+        <v>626</v>
+      </c>
+      <c r="L24" t="n">
+        <v>519</v>
+      </c>
+      <c r="M24" t="n">
+        <v>323</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2232</v>
+      </c>
+      <c r="O24" t="n">
+        <v>965</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1472</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>868</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1207</v>
+      </c>
+      <c r="S24" t="n">
+        <v>640</v>
+      </c>
+      <c r="T24" t="n">
+        <v>493</v>
+      </c>
+      <c r="U24" t="n">
+        <v>958</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4627</v>
+      </c>
+      <c r="W24" t="n">
+        <v>597</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1437</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>753</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>54699</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>41944</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12187</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6905</v>
+      </c>
+      <c r="D25" t="n">
+        <v>287</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3818</v>
+      </c>
+      <c r="F25" t="n">
+        <v>816</v>
+      </c>
+      <c r="G25" t="n">
+        <v>795</v>
+      </c>
+      <c r="H25" t="n">
+        <v>919</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1050</v>
+      </c>
+      <c r="J25" t="n">
+        <v>402</v>
+      </c>
+      <c r="K25" t="n">
+        <v>541</v>
+      </c>
+      <c r="L25" t="n">
+        <v>375</v>
+      </c>
+      <c r="M25" t="n">
+        <v>187</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1541</v>
+      </c>
+      <c r="O25" t="n">
+        <v>721</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1071</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>677</v>
+      </c>
+      <c r="R25" t="n">
+        <v>892</v>
+      </c>
+      <c r="S25" t="n">
+        <v>398</v>
+      </c>
+      <c r="T25" t="n">
+        <v>351</v>
+      </c>
+      <c r="U25" t="n">
+        <v>712</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3307</v>
+      </c>
+      <c r="W25" t="n">
+        <v>437</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1111</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>568</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>40068</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9367</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5843</v>
+      </c>
+      <c r="D26" t="n">
+        <v>224</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2772</v>
+      </c>
+      <c r="F26" t="n">
+        <v>584</v>
+      </c>
+      <c r="G26" t="n">
+        <v>528</v>
+      </c>
+      <c r="H26" t="n">
+        <v>825</v>
+      </c>
+      <c r="I26" t="n">
+        <v>743</v>
+      </c>
+      <c r="J26" t="n">
+        <v>251</v>
+      </c>
+      <c r="K26" t="n">
+        <v>398</v>
+      </c>
+      <c r="L26" t="n">
+        <v>271</v>
+      </c>
+      <c r="M26" t="n">
+        <v>122</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1068</v>
+      </c>
+      <c r="O26" t="n">
+        <v>443</v>
+      </c>
+      <c r="P26" t="n">
+        <v>847</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>532</v>
+      </c>
+      <c r="R26" t="n">
+        <v>781</v>
+      </c>
+      <c r="S26" t="n">
+        <v>253</v>
+      </c>
+      <c r="T26" t="n">
+        <v>253</v>
+      </c>
+      <c r="U26" t="n">
+        <v>584</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2343</v>
+      </c>
+      <c r="W26" t="n">
+        <v>255</v>
+      </c>
+      <c r="X26" t="n">
+        <v>680</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>503</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>30470</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/script_DNRPA/prueba.xlsx
+++ b/script_DNRPA/prueba.xlsx
@@ -402,7 +402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
@@ -546,10 +546,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2014-01-01</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>41640</v>
       </c>
       <c r="B2" t="n">
         <v>35306</v>
@@ -628,10 +626,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2014-02-01</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>41671</v>
       </c>
       <c r="B3" t="n">
         <v>19362</v>
@@ -710,10 +706,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2014-03-01</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>41699</v>
       </c>
       <c r="B4" t="n">
         <v>16892</v>
@@ -792,10 +786,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2014-04-01</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>41730</v>
       </c>
       <c r="B5" t="n">
         <v>17525</v>
@@ -874,10 +866,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2014-05-01</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>41760</v>
       </c>
       <c r="B6" t="n">
         <v>18310</v>
@@ -956,10 +946,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2014-06-01</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>41791</v>
       </c>
       <c r="B7" t="n">
         <v>16704</v>
@@ -1038,10 +1026,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2014-07-01</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>41821</v>
       </c>
       <c r="B8" t="n">
         <v>19624</v>
@@ -1120,10 +1106,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2014-08-01</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>41852</v>
       </c>
       <c r="B9" t="n">
         <v>18820</v>
@@ -1202,10 +1186,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2014-09-01</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>41883</v>
       </c>
       <c r="B10" t="n">
         <v>18495</v>
@@ -1284,10 +1266,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2014-10-01</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>41913</v>
       </c>
       <c r="B11" t="n">
         <v>17118</v>
@@ -1366,10 +1346,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2014-11-01</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>41944</v>
       </c>
       <c r="B12" t="n">
         <v>12187</v>
@@ -1448,10 +1426,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2014-12-01</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>41974</v>
       </c>
       <c r="B13" t="n">
         <v>9367</v>
@@ -1526,1098 +1502,6 @@
         <v>503</v>
       </c>
       <c r="Z13" t="n">
-        <v>30470</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Provincia / Mes</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>BUENOS AIRES</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C.AUTONOMA DE BS.AS</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CATAMARCA</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>CORDOBA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>CORRIENTES</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>CHACO</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>CHUBUT</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>ENTRE RIOS</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>FORMOSA</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>JUJUY</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>LA PAMPA</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>LA RIOJA</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>MENDOZA</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>MISIONES</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>NEUQUEN</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>RIO NEGRO</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>SALTA</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>SAN JUAN</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>SAN LUIS</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>SANTA CRUZ</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>SANTA FE</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>SGO.DEL ESTERO</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>TUCUMAN</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>T.DEL FUEGO</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>41640</v>
-      </c>
-      <c r="B15" t="n">
-        <v>35306</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15737</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1036</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10692</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2796</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2299</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2167</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3373</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1192</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1562</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1213</v>
-      </c>
-      <c r="M15" t="n">
-        <v>827</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4211</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2105</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2344</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1537</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2546</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1326</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1107</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1439</v>
-      </c>
-      <c r="V15" t="n">
-        <v>9712</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1386</v>
-      </c>
-      <c r="X15" t="n">
-        <v>2781</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>819</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>109513</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>41671</v>
-      </c>
-      <c r="B16" t="n">
-        <v>19362</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9521</v>
-      </c>
-      <c r="D16" t="n">
-        <v>426</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5474</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1360</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1101</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1392</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1427</v>
-      </c>
-      <c r="J16" t="n">
-        <v>622</v>
-      </c>
-      <c r="K16" t="n">
-        <v>902</v>
-      </c>
-      <c r="L16" t="n">
-        <v>605</v>
-      </c>
-      <c r="M16" t="n">
-        <v>375</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2445</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1009</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1360</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>951</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1173</v>
-      </c>
-      <c r="S16" t="n">
-        <v>588</v>
-      </c>
-      <c r="T16" t="n">
-        <v>566</v>
-      </c>
-      <c r="U16" t="n">
-        <v>866</v>
-      </c>
-      <c r="V16" t="n">
-        <v>4677</v>
-      </c>
-      <c r="W16" t="n">
-        <v>706</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1371</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>651</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>58930</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>41699</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16892</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8638</v>
-      </c>
-      <c r="D17" t="n">
-        <v>429</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5103</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1105</v>
-      </c>
-      <c r="G17" t="n">
-        <v>822</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1217</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1405</v>
-      </c>
-      <c r="J17" t="n">
-        <v>494</v>
-      </c>
-      <c r="K17" t="n">
-        <v>755</v>
-      </c>
-      <c r="L17" t="n">
-        <v>553</v>
-      </c>
-      <c r="M17" t="n">
-        <v>338</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2077</v>
-      </c>
-      <c r="O17" t="n">
-        <v>868</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1207</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>807</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1123</v>
-      </c>
-      <c r="S17" t="n">
-        <v>647</v>
-      </c>
-      <c r="T17" t="n">
-        <v>458</v>
-      </c>
-      <c r="U17" t="n">
-        <v>712</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3910</v>
-      </c>
-      <c r="W17" t="n">
-        <v>528</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1226</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>564</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>51878</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>41730</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17525</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8369</v>
-      </c>
-      <c r="D18" t="n">
-        <v>414</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5335</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1214</v>
-      </c>
-      <c r="G18" t="n">
-        <v>934</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1108</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1435</v>
-      </c>
-      <c r="J18" t="n">
-        <v>575</v>
-      </c>
-      <c r="K18" t="n">
-        <v>774</v>
-      </c>
-      <c r="L18" t="n">
-        <v>548</v>
-      </c>
-      <c r="M18" t="n">
-        <v>339</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2036</v>
-      </c>
-      <c r="O18" t="n">
-        <v>837</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1384</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>875</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1084</v>
-      </c>
-      <c r="S18" t="n">
-        <v>617</v>
-      </c>
-      <c r="T18" t="n">
-        <v>515</v>
-      </c>
-      <c r="U18" t="n">
-        <v>850</v>
-      </c>
-      <c r="V18" t="n">
-        <v>4222</v>
-      </c>
-      <c r="W18" t="n">
-        <v>721</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1421</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>650</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>53782</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>41760</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18310</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9189</v>
-      </c>
-      <c r="D19" t="n">
-        <v>498</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5526</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1344</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1005</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1290</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1516</v>
-      </c>
-      <c r="J19" t="n">
-        <v>555</v>
-      </c>
-      <c r="K19" t="n">
-        <v>825</v>
-      </c>
-      <c r="L19" t="n">
-        <v>565</v>
-      </c>
-      <c r="M19" t="n">
-        <v>366</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2210</v>
-      </c>
-      <c r="O19" t="n">
-        <v>900</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1474</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>942</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1139</v>
-      </c>
-      <c r="S19" t="n">
-        <v>612</v>
-      </c>
-      <c r="T19" t="n">
-        <v>549</v>
-      </c>
-      <c r="U19" t="n">
-        <v>886</v>
-      </c>
-      <c r="V19" t="n">
-        <v>4587</v>
-      </c>
-      <c r="W19" t="n">
-        <v>587</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1357</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>589</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>56821</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>41791</v>
-      </c>
-      <c r="B20" t="n">
-        <v>16704</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8687</v>
-      </c>
-      <c r="D20" t="n">
-        <v>451</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5470</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1298</v>
-      </c>
-      <c r="G20" t="n">
-        <v>963</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1294</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1512</v>
-      </c>
-      <c r="J20" t="n">
-        <v>555</v>
-      </c>
-      <c r="K20" t="n">
-        <v>702</v>
-      </c>
-      <c r="L20" t="n">
-        <v>558</v>
-      </c>
-      <c r="M20" t="n">
-        <v>337</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2092</v>
-      </c>
-      <c r="O20" t="n">
-        <v>898</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1352</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>853</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1086</v>
-      </c>
-      <c r="S20" t="n">
-        <v>579</v>
-      </c>
-      <c r="T20" t="n">
-        <v>455</v>
-      </c>
-      <c r="U20" t="n">
-        <v>798</v>
-      </c>
-      <c r="V20" t="n">
-        <v>4429</v>
-      </c>
-      <c r="W20" t="n">
-        <v>604</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1354</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>485</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>53516</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>41821</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19624</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9577</v>
-      </c>
-      <c r="D21" t="n">
-        <v>535</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6517</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1269</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1142</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1458</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1660</v>
-      </c>
-      <c r="J21" t="n">
-        <v>553</v>
-      </c>
-      <c r="K21" t="n">
-        <v>777</v>
-      </c>
-      <c r="L21" t="n">
-        <v>623</v>
-      </c>
-      <c r="M21" t="n">
-        <v>329</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2361</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1131</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1572</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1035</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1367</v>
-      </c>
-      <c r="S21" t="n">
-        <v>757</v>
-      </c>
-      <c r="T21" t="n">
-        <v>536</v>
-      </c>
-      <c r="U21" t="n">
-        <v>934</v>
-      </c>
-      <c r="V21" t="n">
-        <v>5085</v>
-      </c>
-      <c r="W21" t="n">
-        <v>700</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1511</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>614</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>61667</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>41852</v>
-      </c>
-      <c r="B22" t="n">
-        <v>18820</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8805</v>
-      </c>
-      <c r="D22" t="n">
-        <v>477</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5795</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1249</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1114</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1355</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1604</v>
-      </c>
-      <c r="J22" t="n">
-        <v>506</v>
-      </c>
-      <c r="K22" t="n">
-        <v>769</v>
-      </c>
-      <c r="L22" t="n">
-        <v>557</v>
-      </c>
-      <c r="M22" t="n">
-        <v>409</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2564</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1068</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1375</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>975</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1236</v>
-      </c>
-      <c r="S22" t="n">
-        <v>657</v>
-      </c>
-      <c r="T22" t="n">
-        <v>457</v>
-      </c>
-      <c r="U22" t="n">
-        <v>901</v>
-      </c>
-      <c r="V22" t="n">
-        <v>5057</v>
-      </c>
-      <c r="W22" t="n">
-        <v>695</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1501</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>608</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>58554</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>41883</v>
-      </c>
-      <c r="B23" t="n">
-        <v>18495</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9712</v>
-      </c>
-      <c r="D23" t="n">
-        <v>517</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5840</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1264</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1148</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1382</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1618</v>
-      </c>
-      <c r="J23" t="n">
-        <v>525</v>
-      </c>
-      <c r="K23" t="n">
-        <v>714</v>
-      </c>
-      <c r="L23" t="n">
-        <v>614</v>
-      </c>
-      <c r="M23" t="n">
-        <v>349</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2549</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1097</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1445</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>903</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1258</v>
-      </c>
-      <c r="S23" t="n">
-        <v>660</v>
-      </c>
-      <c r="T23" t="n">
-        <v>512</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1007</v>
-      </c>
-      <c r="V23" t="n">
-        <v>5173</v>
-      </c>
-      <c r="W23" t="n">
-        <v>676</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1433</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>806</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>59697</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>41913</v>
-      </c>
-      <c r="B24" t="n">
-        <v>17118</v>
-      </c>
-      <c r="C24" t="n">
-        <v>8826</v>
-      </c>
-      <c r="D24" t="n">
-        <v>439</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5271</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1178</v>
-      </c>
-      <c r="G24" t="n">
-        <v>998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1226</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1420</v>
-      </c>
-      <c r="J24" t="n">
-        <v>506</v>
-      </c>
-      <c r="K24" t="n">
-        <v>626</v>
-      </c>
-      <c r="L24" t="n">
-        <v>519</v>
-      </c>
-      <c r="M24" t="n">
-        <v>323</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2232</v>
-      </c>
-      <c r="O24" t="n">
-        <v>965</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1472</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>868</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1207</v>
-      </c>
-      <c r="S24" t="n">
-        <v>640</v>
-      </c>
-      <c r="T24" t="n">
-        <v>493</v>
-      </c>
-      <c r="U24" t="n">
-        <v>958</v>
-      </c>
-      <c r="V24" t="n">
-        <v>4627</v>
-      </c>
-      <c r="W24" t="n">
-        <v>597</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1437</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>753</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>54699</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>41944</v>
-      </c>
-      <c r="B25" t="n">
-        <v>12187</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6905</v>
-      </c>
-      <c r="D25" t="n">
-        <v>287</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3818</v>
-      </c>
-      <c r="F25" t="n">
-        <v>816</v>
-      </c>
-      <c r="G25" t="n">
-        <v>795</v>
-      </c>
-      <c r="H25" t="n">
-        <v>919</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1050</v>
-      </c>
-      <c r="J25" t="n">
-        <v>402</v>
-      </c>
-      <c r="K25" t="n">
-        <v>541</v>
-      </c>
-      <c r="L25" t="n">
-        <v>375</v>
-      </c>
-      <c r="M25" t="n">
-        <v>187</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1541</v>
-      </c>
-      <c r="O25" t="n">
-        <v>721</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1071</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>677</v>
-      </c>
-      <c r="R25" t="n">
-        <v>892</v>
-      </c>
-      <c r="S25" t="n">
-        <v>398</v>
-      </c>
-      <c r="T25" t="n">
-        <v>351</v>
-      </c>
-      <c r="U25" t="n">
-        <v>712</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3307</v>
-      </c>
-      <c r="W25" t="n">
-        <v>437</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1111</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>568</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>40068</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>41974</v>
-      </c>
-      <c r="B26" t="n">
-        <v>9367</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5843</v>
-      </c>
-      <c r="D26" t="n">
-        <v>224</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2772</v>
-      </c>
-      <c r="F26" t="n">
-        <v>584</v>
-      </c>
-      <c r="G26" t="n">
-        <v>528</v>
-      </c>
-      <c r="H26" t="n">
-        <v>825</v>
-      </c>
-      <c r="I26" t="n">
-        <v>743</v>
-      </c>
-      <c r="J26" t="n">
-        <v>251</v>
-      </c>
-      <c r="K26" t="n">
-        <v>398</v>
-      </c>
-      <c r="L26" t="n">
-        <v>271</v>
-      </c>
-      <c r="M26" t="n">
-        <v>122</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1068</v>
-      </c>
-      <c r="O26" t="n">
-        <v>443</v>
-      </c>
-      <c r="P26" t="n">
-        <v>847</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>532</v>
-      </c>
-      <c r="R26" t="n">
-        <v>781</v>
-      </c>
-      <c r="S26" t="n">
-        <v>253</v>
-      </c>
-      <c r="T26" t="n">
-        <v>253</v>
-      </c>
-      <c r="U26" t="n">
-        <v>584</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2343</v>
-      </c>
-      <c r="W26" t="n">
-        <v>255</v>
-      </c>
-      <c r="X26" t="n">
-        <v>680</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>503</v>
-      </c>
-      <c r="Z26" t="n">
         <v>30470</v>
       </c>
     </row>
